--- a/Dec 2019 to Jan 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Dec 2019 to Jan 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A4E9A-F466-43D9-AB8E-8AFAD01CA9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF67735-2469-44EE-94A4-6A9CED5CE6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,34 +325,34 @@
     <t>New Network Added to Database in Jan 2020</t>
   </si>
   <si>
-    <t>Old Network Removed from Database in Jan 2020</t>
-  </si>
-  <si>
-    <t>Alias removed from Network in Jan 2020</t>
-  </si>
-  <si>
-    <t>Network Added to Service in Jan 2020</t>
-  </si>
-  <si>
-    <t>Network Removed from Service in Jan 2020</t>
-  </si>
-  <si>
-    <t>Network Moved from Base Service to Addon Packahe in Jan 2020</t>
-  </si>
-  <si>
-    <t>Name of Addon Package Changed in Jan 2020</t>
-  </si>
-  <si>
-    <t>Network Moved to Another Addon Package in Jan 2020</t>
-  </si>
-  <si>
     <t>Network Removed from Base Service in Jan 2020</t>
   </si>
   <si>
     <t>Network Added to Base Service in Jan 2020</t>
   </si>
   <si>
-    <t>Network Removed from Addon Package in Jan 2020</t>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Moved from One Add-On Package to Another Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Database in Jan 2020</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package in Jan 2020</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package in Jan 2020</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1204,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1244,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1258,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1272,7 +1272,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1286,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1300,7 +1300,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1314,7 +1314,7 @@
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1328,7 +1328,7 @@
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1342,7 +1342,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1356,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1370,7 +1370,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1384,7 +1384,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1398,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1412,7 +1412,7 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1426,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1440,7 +1440,7 @@
         <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1454,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1471,7 +1471,7 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1488,7 +1488,7 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1505,7 +1505,7 @@
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1522,7 +1522,7 @@
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1539,7 +1539,7 @@
         <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1556,7 +1556,7 @@
         <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1573,7 +1573,7 @@
         <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1590,7 +1590,7 @@
         <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1607,7 +1607,7 @@
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1624,7 +1624,7 @@
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1641,7 +1641,7 @@
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1658,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1675,7 +1675,7 @@
         <v>56</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1692,7 +1692,7 @@
         <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1709,7 +1709,7 @@
         <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1726,7 +1726,7 @@
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1743,7 +1743,7 @@
         <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1760,7 +1760,7 @@
         <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1777,7 +1777,7 @@
         <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1794,7 +1794,7 @@
         <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1811,7 +1811,7 @@
         <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1828,7 +1828,7 @@
         <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1845,7 +1845,7 @@
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1862,7 +1862,7 @@
         <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1876,7 +1876,7 @@
         <v>44</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1890,7 +1890,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1904,7 +1904,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1918,7 +1918,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1932,7 +1932,7 @@
         <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1946,7 +1946,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1960,7 +1960,7 @@
         <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1974,7 +1974,7 @@
         <v>22</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1988,7 +1988,7 @@
         <v>77</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -2002,7 +2002,7 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -2016,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -2030,7 +2030,7 @@
         <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -2044,7 +2044,7 @@
         <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2058,7 +2058,7 @@
         <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -2075,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2089,7 +2089,7 @@
         <v>22</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2103,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -2131,7 +2131,7 @@
         <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -2145,7 +2145,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2159,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2173,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2187,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2215,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -2397,7 +2397,7 @@
         <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
@@ -2411,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
@@ -2425,7 +2425,7 @@
         <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
@@ -2473,7 +2473,7 @@
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
@@ -2487,7 +2487,7 @@
         <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
@@ -2535,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
